--- a/Temperature compensation optimisation/Interay/141421/SB_141421_Interay_alldata_cleaned_balanced_offset.xlsx
+++ b/Temperature compensation optimisation/Interay/141421/SB_141421_Interay_alldata_cleaned_balanced_offset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://althennl-my.sharepoint.com/personal/m_brummelhuis_althen_nl/Documents/Documenten/GitHub/Althen/Temperature compensation optimisation/Interay/141421/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="824" documentId="11_C363F8EC24E08451EC097C72E93161BA83D7F09A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8EC6B158-40F0-48D7-96A1-FA5ED660B07C}"/>
+  <xr:revisionPtr revIDLastSave="825" documentId="11_C363F8EC24E08451EC097C72E93161BA83D7F09A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73F7D30-AF15-4A7D-BBD4-52BA40226B31}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -471,7 +471,7 @@
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="Q186" sqref="Q186"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -609,7 +609,7 @@
         <v>-20</v>
       </c>
       <c r="N3">
-        <f t="shared" ref="N3:N66" si="0">I3-1.81427</f>
+        <f>I3-1.81427</f>
         <v>9.6115112499999995</v>
       </c>
     </row>
@@ -654,7 +654,7 @@
         <v>-20</v>
       </c>
       <c r="N4">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="N3:N66" si="0">I4-1.81427</f>
         <v>9.5932007031249995</v>
       </c>
     </row>

--- a/Temperature compensation optimisation/Interay/141421/SB_141421_Interay_alldata_cleaned_balanced_offset.xlsx
+++ b/Temperature compensation optimisation/Interay/141421/SB_141421_Interay_alldata_cleaned_balanced_offset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://althennl-my.sharepoint.com/personal/m_brummelhuis_althen_nl/Documents/Documenten/GitHub/Althen/Temperature compensation optimisation/Interay/141421/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="825" documentId="11_C363F8EC24E08451EC097C72E93161BA83D7F09A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73F7D30-AF15-4A7D-BBD4-52BA40226B31}"/>
+  <xr:revisionPtr revIDLastSave="833" documentId="11_C363F8EC24E08451EC097C72E93161BA83D7F09A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F10BFFD-708B-4D1B-A677-FBBAD6125475}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,8 +93,16 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,11 +130,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -468,10 +477,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -654,7 +663,7 @@
         <v>-20</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N3:N66" si="0">I4-1.81427</f>
+        <f t="shared" ref="N4:N66" si="0">I4-1.81427</f>
         <v>9.5932007031249995</v>
       </c>
     </row>
@@ -923,7 +932,7 @@
       <c r="M10">
         <v>-20</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="4">
         <f t="shared" si="0"/>
         <v>0.65765382812499995</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="M16">
         <v>-20</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="4">
         <f t="shared" si="0"/>
         <v>-0.37384031250000005</v>
       </c>
@@ -1283,7 +1292,7 @@
       <c r="M18">
         <v>-20</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="4">
         <f t="shared" si="0"/>
         <v>-1.2069701953125</v>
       </c>
@@ -1598,7 +1607,7 @@
       <c r="M25">
         <v>-20</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="4">
         <f t="shared" si="0"/>
         <v>-2.210998515625</v>
       </c>
@@ -1643,7 +1652,7 @@
       <c r="M26" s="2">
         <v>-20</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="4">
         <f t="shared" si="0"/>
         <v>-10.0418090625</v>
       </c>
@@ -1913,7 +1922,7 @@
       <c r="M32">
         <v>-10</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="4">
         <f t="shared" si="0"/>
         <v>-10.02960203125</v>
       </c>
